--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_GpsTayNinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_GpsTayNinh.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="91">
   <si>
     <t>STT</t>
   </si>
@@ -270,9 +270,6 @@
     <t>Le4.1.04.BOO01.221222</t>
   </si>
   <si>
-    <t>Nâng cấp FW +module SIM</t>
-  </si>
-  <si>
     <t>BT</t>
   </si>
   <si>
@@ -298,6 +295,36 @@
   </si>
   <si>
     <t>Thay MCU, nâng cấp module SIM</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200401</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi GPS(có dấu hiệu oxi hóa)</t>
+  </si>
+  <si>
+    <t>Đổi mới thiết bị</t>
+  </si>
+  <si>
+    <t>ĐM</t>
+  </si>
+  <si>
+    <t>Thiết bị reset lại, lỗi module GSM</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi ANTEN GSM</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>NCFW, LK</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng</t>
+  </si>
+  <si>
+    <t>Thiết bị HHDV</t>
   </si>
 </sst>
 </file>
@@ -749,6 +776,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -766,30 +817,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1133,39 +1160,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1210,58 +1237,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1286,23 +1313,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1328,7 +1355,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1359,7 +1386,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1388,7 +1415,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1417,7 +1444,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1446,7 +1473,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1475,7 +1502,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1504,7 +1531,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1535,7 +1562,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1564,7 +1591,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1593,7 +1620,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1622,7 +1649,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3338,13 +3365,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3356,6 +3376,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3399,39 +3426,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3476,58 +3503,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3552,23 +3579,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3594,7 +3621,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3625,7 +3652,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3654,7 +3681,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3683,7 +3710,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3712,7 +3739,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3741,7 +3768,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3770,7 +3797,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3801,7 +3828,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3830,7 +3857,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3859,7 +3886,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3888,7 +3915,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5604,6 +5631,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5615,13 +5649,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5665,39 +5692,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5742,58 +5769,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5818,23 +5845,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5860,7 +5887,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5891,7 +5918,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5920,7 +5947,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5949,7 +5976,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5978,7 +6005,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6007,7 +6034,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6036,7 +6063,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6067,7 +6094,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6096,7 +6123,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6125,7 +6152,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6154,7 +6181,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7870,6 +7897,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7881,13 +7915,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7898,8 +7925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7931,41 +7958,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8010,58 +8037,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8086,23 +8113,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8112,7 +8139,9 @@
       <c r="B6" s="61">
         <v>44921</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44922</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>45</v>
       </c>
@@ -8125,26 +8154,26 @@
       </c>
       <c r="H6" s="62"/>
       <c r="I6" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="J6" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="L6" s="66" t="s">
+      <c r="M6" s="66" t="s">
         <v>79</v>
-      </c>
-      <c r="M6" s="66" t="s">
-        <v>80</v>
       </c>
       <c r="N6" s="64"/>
       <c r="O6" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="66" t="s">
         <v>73</v>
-      </c>
-      <c r="P6" s="66" t="s">
-        <v>74</v>
       </c>
       <c r="Q6" s="64" t="s">
         <v>18</v>
@@ -8154,7 +8183,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8169,7 +8198,9 @@
       <c r="B7" s="61">
         <v>44921</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44922</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>45</v>
       </c>
@@ -8180,24 +8211,36 @@
       <c r="G7" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="37"/>
+      <c r="H7" s="37" t="s">
+        <v>90</v>
+      </c>
       <c r="I7" s="63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
+      <c r="M7" s="66" t="s">
+        <v>89</v>
+      </c>
       <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="67"/>
+      <c r="O7" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="67" t="s">
+        <v>30</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8210,7 +8253,9 @@
       <c r="B8" s="61">
         <v>44921</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="61">
+        <v>44922</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>45</v>
       </c>
@@ -8222,19 +8267,37 @@
         <v>65</v>
       </c>
       <c r="H8" s="37"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
+      <c r="I8" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" s="66" t="s">
+        <v>79</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8263,7 +8326,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8292,7 +8355,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8321,7 +8384,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8350,7 +8413,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8381,7 +8444,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8410,7 +8473,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8439,7 +8502,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8468,7 +8531,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8618,7 +8681,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -8650,7 +8713,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -8927,7 +8990,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -9055,7 +9118,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -9119,7 +9182,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -10184,6 +10247,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10195,13 +10265,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10212,8 +10275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:S9"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10245,41 +10308,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10324,58 +10387,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10400,23 +10463,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10426,7 +10489,9 @@
       <c r="B6" s="61">
         <v>44921</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44922</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>66</v>
       </c>
@@ -10447,14 +10512,14 @@
         <v>71</v>
       </c>
       <c r="M6" s="66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="66" t="s">
-        <v>71</v>
+      <c r="O6" s="64" t="s">
+        <v>72</v>
       </c>
       <c r="P6" s="66" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q6" s="64" t="s">
         <v>18</v>
@@ -10463,10 +10528,10 @@
         <v>20</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10481,7 +10546,9 @@
       <c r="B7" s="61">
         <v>44921</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44922</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>66</v>
       </c>
@@ -10496,20 +10563,22 @@
       <c r="I7" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="64"/>
+      <c r="J7" s="64" t="s">
+        <v>86</v>
+      </c>
       <c r="K7" s="65"/>
       <c r="L7" s="66" t="s">
         <v>71</v>
       </c>
       <c r="M7" s="66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="66" t="s">
         <v>73</v>
-      </c>
-      <c r="P7" s="66" t="s">
-        <v>74</v>
       </c>
       <c r="Q7" s="64" t="s">
         <v>18</v>
@@ -10518,10 +10587,10 @@
         <v>20</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10534,7 +10603,9 @@
       <c r="B8" s="61">
         <v>44921</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="61">
+        <v>44922</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>67</v>
       </c>
@@ -10549,7 +10620,9 @@
       <c r="I8" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="64"/>
+      <c r="J8" s="64" t="s">
+        <v>85</v>
+      </c>
       <c r="K8" s="65" t="s">
         <v>68</v>
       </c>
@@ -10557,26 +10630,24 @@
         <v>71</v>
       </c>
       <c r="M8" s="66" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="P8" s="66" t="s">
-        <v>74</v>
-      </c>
       <c r="Q8" s="64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R8" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>75</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10589,7 +10660,9 @@
       <c r="B9" s="61">
         <v>44921</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="61">
+        <v>44922</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>67</v>
       </c>
@@ -10604,7 +10677,9 @@
       <c r="I9" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="64"/>
+      <c r="J9" s="64" t="s">
+        <v>85</v>
+      </c>
       <c r="K9" s="65" t="s">
         <v>68</v>
       </c>
@@ -10612,26 +10687,24 @@
         <v>71</v>
       </c>
       <c r="M9" s="66" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="P9" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="P9" s="66" t="s">
-        <v>74</v>
-      </c>
       <c r="Q9" s="64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R9" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>75</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10660,7 +10733,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10689,7 +10762,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10718,7 +10791,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10749,7 +10822,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10778,7 +10851,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10807,7 +10880,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10836,7 +10909,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10954,7 +11027,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -10986,7 +11059,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -11167,7 +11240,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -11423,7 +11496,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -11840,7 +11913,7 @@
       <c r="S48" s="3"/>
       <c r="T48" s="34">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="9" t="s">
         <v>57</v>
@@ -12552,6 +12625,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12563,13 +12643,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12613,39 +12686,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12690,58 +12763,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12766,23 +12839,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12808,7 +12881,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12839,7 +12912,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12868,7 +12941,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12897,7 +12970,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12926,7 +12999,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12955,7 +13028,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12984,7 +13057,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13015,7 +13088,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13044,7 +13117,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13073,7 +13146,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13102,7 +13175,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14818,6 +14891,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14829,13 +14909,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14879,39 +14952,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14956,58 +15029,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -15032,23 +15105,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15074,7 +15147,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15105,7 +15178,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15134,7 +15207,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15163,7 +15236,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15192,7 +15265,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15221,7 +15294,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15250,7 +15323,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15281,7 +15354,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15310,7 +15383,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15339,7 +15412,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15368,7 +15441,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17084,6 +17157,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17095,13 +17175,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17145,39 +17218,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17222,58 +17295,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17298,23 +17371,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17340,7 +17413,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17371,7 +17444,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17400,7 +17473,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17429,7 +17502,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17458,7 +17531,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17487,7 +17560,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17516,7 +17589,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17547,7 +17620,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17576,7 +17649,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17605,7 +17678,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17634,7 +17707,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19350,6 +19423,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19361,13 +19441,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19411,39 +19484,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19488,58 +19561,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19564,23 +19637,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="86"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19606,7 +19679,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19637,7 +19710,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19666,7 +19739,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19695,7 +19768,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19724,7 +19797,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19753,7 +19826,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19782,7 +19855,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19813,7 +19886,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19842,7 +19915,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19871,7 +19944,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19900,7 +19973,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21131,13 +21204,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21149,6 +21215,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_GpsTayNinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_GpsTayNinh.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="94">
   <si>
     <t>STT</t>
   </si>
@@ -325,6 +325,15 @@
   </si>
   <si>
     <t>Thiết bị HHDV</t>
+  </si>
+  <si>
+    <t>ID thiết bị mới : 862205051202457</t>
+  </si>
+  <si>
+    <t>ID thiết bị mới : 862205051204362</t>
+  </si>
+  <si>
+    <t>Thiết bị chốt GPS kém</t>
   </si>
 </sst>
 </file>
@@ -7925,8 +7934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8217,7 +8226,9 @@
       <c r="I7" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="K7" s="66" t="s">
         <v>78</v>
       </c>
@@ -10276,7 +10287,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D6" sqref="D6:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10616,7 +10627,9 @@
       <c r="G8" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="62"/>
+      <c r="H8" s="62" t="s">
+        <v>91</v>
+      </c>
       <c r="I8" s="63" t="s">
         <v>69</v>
       </c>
@@ -10673,7 +10686,9 @@
       <c r="G9" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="62"/>
+      <c r="H9" s="62" t="s">
+        <v>92</v>
+      </c>
       <c r="I9" s="63" t="s">
         <v>70</v>
       </c>
